--- a/X06 FFF OPEN 10X10 X GEMELLI_Symmetrised.xlsx
+++ b/X06 FFF OPEN 10X10 X GEMELLI_Symmetrised.xlsx
@@ -1,20 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATA\STUDI\MR_LINAC\DATA\FinalProfileSets\GEMELLI\Symmetrised\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\projects\Python\MRIdian_prifile\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE75DAF3-5BBC-402C-8834-DF1DA796E249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24105" windowHeight="11115"/>
+    <workbookView xWindow="8235" yWindow="1110" windowWidth="18660" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="X06 FFF OPEN 10X10 X GEMELLI_Sy" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -345,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -901,7 +912,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -915,7 +926,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -941,7 +951,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2075,6 +2085,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C052-4119-87EC-546A21831B1E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2142,7 +2157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1454394816"/>
@@ -2204,7 +2219,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1454389920"/>
@@ -2245,7 +2260,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2257,7 +2272,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
   <c:roundedCorners val="0"/>
@@ -2271,7 +2286,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2297,7 +2311,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3437,6 +3451,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CDC6-4AE1-A958-24993D2F0392}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3504,7 +3523,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1501396848"/>
@@ -3566,7 +3585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="-1501390864"/>
@@ -3605,7 +3624,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4745,7 +4764,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4775,7 +4800,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5055,11 +5086,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H3225"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5168,7 +5199,7 @@
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5516,7 +5547,7 @@
         <v>5.4718</v>
       </c>
       <c r="G87">
-        <f t="shared" ref="G87:H150" si="1">(F88-F87)/(D88-D87)</f>
+        <f t="shared" ref="G87:G150" si="1">(F88-F87)/(D88-D87)</f>
         <v>0.1460000000000008</v>
       </c>
       <c r="H87">
@@ -55667,7 +55698,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>